--- a/DataDict.xlsx
+++ b/DataDict.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc. Arrival\Visual Studio 2015\Projects\MarathonSkills2015-TO4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc. Arrival\Visual Studio 2015\Projects\MarathonSkills2015-TO6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="88">
   <si>
     <t>Accommodation</t>
   </si>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,6 +1815,9 @@
       <c r="E111" t="s">
         <v>9</v>
       </c>
+      <c r="F111" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" t="s">

--- a/DataDict.xlsx
+++ b/DataDict.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc. Arrival\Visual Studio 2015\Projects\MarathonSkills2015-TO6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASC\Documents\Visual Studio 2013\Projects\MarathonSkills2015-TO6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="90">
   <si>
     <t>Accommodation</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>MaximumCapacity</t>
+  </si>
+  <si>
+    <t>PackageItemId</t>
+  </si>
+  <si>
+    <t>Foreignkey to PackageItem</t>
   </si>
 </sst>
 </file>
@@ -654,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F117"/>
+  <dimension ref="B2:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1819,64 +1825,81 @@
         <v>73</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>15</v>
+      </c>
+      <c r="C112" t="s">
+        <v>88</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="1" t="s">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="F115" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>70</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>71</v>
       </c>
-      <c r="D115" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
-        <v>77</v>
-      </c>
-      <c r="D116" t="s">
-        <v>50</v>
-      </c>
-      <c r="E116" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
+        <v>77</v>
+      </c>
+      <c r="D117" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
         <v>52</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>53</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E118" t="s">
         <v>9</v>
       </c>
     </row>

--- a/DataDict.xlsx
+++ b/DataDict.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="90">
   <si>
     <t>Accommodation</t>
   </si>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F112" sqref="F112"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1866,19 +1866,16 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
-      </c>
-      <c r="F116" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.25">

--- a/DataDict.xlsx
+++ b/DataDict.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17301"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASC\Documents\Visual Studio 2013\Projects\MarathonSkills2015-TO6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Doc. Arrival\Visual Studio 2015\Projects\MarathonSkills2015-TO6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -663,7 +663,7 @@
   <dimension ref="B2:F118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C112" t="s">
         <v>88</v>
